--- a/07-01-2023.xlsx
+++ b/07-01-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M686"/>
+  <dimension ref="A1:M736"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43643,6 +43643,3156 @@
       </c>
       <c r="M686" t="inlineStr"/>
     </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>686</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>051451900</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>VO DANG KHOA</t>
+        </is>
+      </c>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>Chụp CLVT sọ não không tiêm thuốc cản quang (từ 1-32 dãy)</t>
+        </is>
+      </c>
+      <c r="F687" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="G687" t="inlineStr">
+        <is>
+          <t>CT2301070001</t>
+        </is>
+      </c>
+      <c r="H687" t="inlineStr">
+        <is>
+          <t>1163</t>
+        </is>
+      </c>
+      <c r="I687" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:51</t>
+        </is>
+      </c>
+      <c r="J687" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>BS CKII Huỳnh Văn Tho</t>
+        </is>
+      </c>
+      <c r="L687" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M687" t="inlineStr"/>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>687</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>061477531</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>VAN DUC TRONG</t>
+        </is>
+      </c>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F688" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G688" t="inlineStr">
+        <is>
+          <t>US2301070074</t>
+        </is>
+      </c>
+      <c r="H688" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I688" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:43</t>
+        </is>
+      </c>
+      <c r="J688" t="inlineStr">
+        <is>
+          <t>PK TYC Chất Lượng Cao</t>
+        </is>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Thị Uyên Sa</t>
+        </is>
+      </c>
+      <c r="L688" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M688" t="inlineStr"/>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>688</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>79408230004019</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>THAI THIEN AN</t>
+        </is>
+      </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F689" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G689" t="inlineStr">
+        <is>
+          <t>CR2301070038</t>
+        </is>
+      </c>
+      <c r="H689" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I689" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:40</t>
+        </is>
+      </c>
+      <c r="J689" t="inlineStr">
+        <is>
+          <t>PK TYC Chất Lượng Cao</t>
+        </is>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>BS CKII Huỳnh Văn Tho</t>
+        </is>
+      </c>
+      <c r="L689" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M689" t="inlineStr"/>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>081798475</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>TRAN CONG HUAN</t>
+        </is>
+      </c>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F690" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G690" t="inlineStr">
+        <is>
+          <t>US2301070055</t>
+        </is>
+      </c>
+      <c r="H690" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I690" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:43</t>
+        </is>
+      </c>
+      <c r="J690" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quang Huy</t>
+        </is>
+      </c>
+      <c r="L690" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M690" t="inlineStr"/>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>690</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>79408220082069</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>H ZA RA NIE</t>
+        </is>
+      </c>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>Siêu âm tim Doppler</t>
+        </is>
+      </c>
+      <c r="F691" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G691" t="inlineStr">
+        <is>
+          <t>US2301070041</t>
+        </is>
+      </c>
+      <c r="H691" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I691" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:42</t>
+        </is>
+      </c>
+      <c r="J691" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>BS Võ Thị Mỹ An</t>
+        </is>
+      </c>
+      <c r="L691" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M691" t="inlineStr"/>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>691</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>072081691</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>DANG DONG DAO</t>
+        </is>
+      </c>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F692" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G692" t="inlineStr">
+        <is>
+          <t>CR2301070037</t>
+        </is>
+      </c>
+      <c r="H692" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I692" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:39</t>
+        </is>
+      </c>
+      <c r="J692" t="inlineStr">
+        <is>
+          <t>PK TYC Chất Lượng Cao</t>
+        </is>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>BS CKII Huỳnh Văn Tho</t>
+        </is>
+      </c>
+      <c r="L692" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M692" t="inlineStr"/>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>692</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>012009108</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>NGUYEN GIA HUY</t>
+        </is>
+      </c>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F693" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G693" t="inlineStr">
+        <is>
+          <t>US2301060489</t>
+        </is>
+      </c>
+      <c r="H693" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I693" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:42</t>
+        </is>
+      </c>
+      <c r="J693" t="inlineStr">
+        <is>
+          <t>Tiêu Hoá</t>
+        </is>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L693" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M693" t="inlineStr"/>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>693</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>79408230003991</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>TRAN BAO NGAN</t>
+        </is>
+      </c>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F694" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G694" t="inlineStr">
+        <is>
+          <t>US2301070058</t>
+        </is>
+      </c>
+      <c r="H694" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I694" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:41</t>
+        </is>
+      </c>
+      <c r="J694" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L694" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M694" t="inlineStr"/>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>694</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>111786338</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>PHAM HOANG OANH</t>
+        </is>
+      </c>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F695" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G695" t="inlineStr">
+        <is>
+          <t>US2301070051</t>
+        </is>
+      </c>
+      <c r="H695" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I695" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:41</t>
+        </is>
+      </c>
+      <c r="J695" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quang Huy</t>
+        </is>
+      </c>
+      <c r="L695" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M695" t="inlineStr"/>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>695</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>79408230003993</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>NGUYEN NGOC KIM NGAN</t>
+        </is>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F696" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G696" t="inlineStr">
+        <is>
+          <t>CR2301070036</t>
+        </is>
+      </c>
+      <c r="H696" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I696" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:37</t>
+        </is>
+      </c>
+      <c r="J696" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>BS CKII Huỳnh Văn Tho</t>
+        </is>
+      </c>
+      <c r="L696" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M696" t="inlineStr"/>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>696</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>79408230004023</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>TRAN VO BAO UYEN</t>
+        </is>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F697" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G697" t="inlineStr">
+        <is>
+          <t>US2301070060</t>
+        </is>
+      </c>
+      <c r="H697" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I697" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:40</t>
+        </is>
+      </c>
+      <c r="J697" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L697" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M697" t="inlineStr"/>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>697</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>031942076</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>PHAM DO LINH DAN</t>
+        </is>
+      </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F698" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G698" t="inlineStr">
+        <is>
+          <t>CR2301070041</t>
+        </is>
+      </c>
+      <c r="H698" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I698" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:37</t>
+        </is>
+      </c>
+      <c r="J698" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>BS CKII Huỳnh Văn Tho</t>
+        </is>
+      </c>
+      <c r="L698" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M698" t="inlineStr"/>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>698</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>79408230004031</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>NGUYEN HUU THIEN</t>
+        </is>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F699" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G699" t="inlineStr">
+        <is>
+          <t>US2301070065</t>
+        </is>
+      </c>
+      <c r="H699" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I699" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:36</t>
+        </is>
+      </c>
+      <c r="J699" t="inlineStr">
+        <is>
+          <t>PK TYC Chất Lượng Cao</t>
+        </is>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Thị Uyên Sa</t>
+        </is>
+      </c>
+      <c r="L699" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M699" t="inlineStr"/>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>111454080</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>NGUYEN HOANG PHUC</t>
+        </is>
+      </c>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F700" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G700" t="inlineStr">
+        <is>
+          <t>US2301070057</t>
+        </is>
+      </c>
+      <c r="H700" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I700" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:38</t>
+        </is>
+      </c>
+      <c r="J700" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L700" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M700" t="inlineStr"/>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>79408230003982</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>TRAN GIA PHUONG NGHI</t>
+        </is>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F701" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G701" t="inlineStr">
+        <is>
+          <t>CR2301070028</t>
+        </is>
+      </c>
+      <c r="H701" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I701" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:35</t>
+        </is>
+      </c>
+      <c r="J701" t="inlineStr">
+        <is>
+          <t>PK TYC Chất Lượng Cao</t>
+        </is>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>BS CKII Huỳnh Văn Tho</t>
+        </is>
+      </c>
+      <c r="L701" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M701" t="inlineStr"/>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>021731823</t>
+        </is>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>LUONG NGOC THIEN</t>
+        </is>
+      </c>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>Siêu âm tinh hoàn hai bên</t>
+        </is>
+      </c>
+      <c r="F702" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G702" t="inlineStr">
+        <is>
+          <t>US2301070054</t>
+        </is>
+      </c>
+      <c r="H702" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I702" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:38</t>
+        </is>
+      </c>
+      <c r="J702" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L702" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M702" t="inlineStr"/>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>702</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>21055199</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>DINH GIA HUY</t>
+        </is>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F703" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G703" t="inlineStr">
+        <is>
+          <t>US2301070045</t>
+        </is>
+      </c>
+      <c r="H703" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I703" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:38</t>
+        </is>
+      </c>
+      <c r="J703" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quang Huy</t>
+        </is>
+      </c>
+      <c r="L703" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M703" t="inlineStr"/>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>703</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>091832095</t>
+        </is>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>LE NGUYEN KHOI</t>
+        </is>
+      </c>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F704" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G704" t="inlineStr">
+        <is>
+          <t>CR2301070031</t>
+        </is>
+      </c>
+      <c r="H704" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I704" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:34</t>
+        </is>
+      </c>
+      <c r="J704" t="inlineStr">
+        <is>
+          <t>PK TYC Chất Lượng Cao</t>
+        </is>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>BS CKII Huỳnh Văn Tho</t>
+        </is>
+      </c>
+      <c r="L704" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M704" t="inlineStr"/>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>704</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>79408210224560</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>LUU LE GIA LAC</t>
+        </is>
+      </c>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F705" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G705" t="inlineStr">
+        <is>
+          <t>CR2301070003</t>
+        </is>
+      </c>
+      <c r="H705" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I705" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:37</t>
+        </is>
+      </c>
+      <c r="J705" t="inlineStr">
+        <is>
+          <t>Ung bướu huyết học</t>
+        </is>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>BS CKII Huỳnh Văn Tho</t>
+        </is>
+      </c>
+      <c r="L705" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M705" t="inlineStr"/>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>705</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>111786338</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>PHAM HOANG OANH</t>
+        </is>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>Chụp Xquang bụng không chuẩn bị thẳng hoặc nghiêng [thẳng và nghiêng]</t>
+        </is>
+      </c>
+      <c r="F706" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G706" t="inlineStr">
+        <is>
+          <t>CR2301070035</t>
+        </is>
+      </c>
+      <c r="H706" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I706" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:33</t>
+        </is>
+      </c>
+      <c r="J706" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>BS CKII Huỳnh Văn Tho</t>
+        </is>
+      </c>
+      <c r="L706" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M706" t="inlineStr"/>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>706</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>031666812</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>SHAHANI</t>
+        </is>
+      </c>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F707" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G707" t="inlineStr">
+        <is>
+          <t>US2301070052</t>
+        </is>
+      </c>
+      <c r="H707" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I707" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:35</t>
+        </is>
+      </c>
+      <c r="J707" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L707" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M707" t="inlineStr"/>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>707</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>79408230003980</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>VO NGOC PHUC</t>
+        </is>
+      </c>
+      <c r="E708" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F708" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G708" t="inlineStr">
+        <is>
+          <t>US2301070044</t>
+        </is>
+      </c>
+      <c r="H708" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I708" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:34</t>
+        </is>
+      </c>
+      <c r="J708" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L708" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M708" t="inlineStr"/>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>708</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>121823074</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>LE BAO NGAN</t>
+        </is>
+      </c>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F709" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G709" t="inlineStr">
+        <is>
+          <t>CR2301070039</t>
+        </is>
+      </c>
+      <c r="H709" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I709" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:31</t>
+        </is>
+      </c>
+      <c r="J709" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>BS CKII Huỳnh Văn Tho</t>
+        </is>
+      </c>
+      <c r="L709" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M709" t="inlineStr"/>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>709</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>79408220096932</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>NGO THIEN LAC</t>
+        </is>
+      </c>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F710" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G710" t="inlineStr">
+        <is>
+          <t>US2301070042</t>
+        </is>
+      </c>
+      <c r="H710" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I710" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:33</t>
+        </is>
+      </c>
+      <c r="J710" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L710" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M710" t="inlineStr"/>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>710</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>79408220082681</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>DOAN TRINH QUOC MINH</t>
+        </is>
+      </c>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>Chụp Xquang xương bàn ngón tay thẳng, nghiêng hoặc chếch</t>
+        </is>
+      </c>
+      <c r="F711" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G711" t="inlineStr">
+        <is>
+          <t>CR2301070033</t>
+        </is>
+      </c>
+      <c r="H711" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I711" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:30</t>
+        </is>
+      </c>
+      <c r="J711" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>BS CKII Huỳnh Văn Tho</t>
+        </is>
+      </c>
+      <c r="L711" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M711" t="inlineStr"/>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>711</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>102030907</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>NGUYEN TRAN GIA HUY</t>
+        </is>
+      </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F712" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G712" t="inlineStr">
+        <is>
+          <t>US2301070053</t>
+        </is>
+      </c>
+      <c r="H712" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I712" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:33</t>
+        </is>
+      </c>
+      <c r="J712" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quang Huy</t>
+        </is>
+      </c>
+      <c r="L712" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M712" t="inlineStr"/>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>79408230003967</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>NGUYEN HOA PHUC TOAN</t>
+        </is>
+      </c>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F713" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G713" t="inlineStr">
+        <is>
+          <t>US2301070050</t>
+        </is>
+      </c>
+      <c r="H713" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I713" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:32</t>
+        </is>
+      </c>
+      <c r="J713" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L713" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M713" t="inlineStr"/>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>79408230003989</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>NGUYEN VU HOANG THUYET</t>
+        </is>
+      </c>
+      <c r="E714" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F714" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G714" t="inlineStr">
+        <is>
+          <t>US2301070038</t>
+        </is>
+      </c>
+      <c r="H714" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I714" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:31</t>
+        </is>
+      </c>
+      <c r="J714" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L714" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M714" t="inlineStr"/>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>041777137</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>TRAN DUC THIEN</t>
+        </is>
+      </c>
+      <c r="E715" t="inlineStr">
+        <is>
+          <t>Siêu âm tinh hoàn hai bên</t>
+        </is>
+      </c>
+      <c r="F715" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G715" t="inlineStr">
+        <is>
+          <t>US2301070049</t>
+        </is>
+      </c>
+      <c r="H715" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I715" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:31</t>
+        </is>
+      </c>
+      <c r="J715" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quang Huy</t>
+        </is>
+      </c>
+      <c r="L715" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M715" t="inlineStr"/>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>715</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>041777137</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>TRAN DUC THIEN</t>
+        </is>
+      </c>
+      <c r="E716" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F716" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G716" t="inlineStr">
+        <is>
+          <t>US2301070048</t>
+        </is>
+      </c>
+      <c r="H716" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I716" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:30</t>
+        </is>
+      </c>
+      <c r="J716" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quang Huy</t>
+        </is>
+      </c>
+      <c r="L716" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M716" t="inlineStr"/>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>79408230003955</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>LE TRAN THIEN MY</t>
+        </is>
+      </c>
+      <c r="E717" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F717" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G717" t="inlineStr">
+        <is>
+          <t>US2301070046</t>
+        </is>
+      </c>
+      <c r="H717" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I717" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:30</t>
+        </is>
+      </c>
+      <c r="J717" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quang Huy</t>
+        </is>
+      </c>
+      <c r="L717" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M717" t="inlineStr"/>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>717</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>79408230004011</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>NGUYEN NGOC THANH TRUC</t>
+        </is>
+      </c>
+      <c r="E718" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F718" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G718" t="inlineStr">
+        <is>
+          <t>US2301070047</t>
+        </is>
+      </c>
+      <c r="H718" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I718" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:29</t>
+        </is>
+      </c>
+      <c r="J718" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L718" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M718" t="inlineStr"/>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>718</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>79408210338049</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>PHAM NGOC MINH CHAU</t>
+        </is>
+      </c>
+      <c r="E719" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F719" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G719" t="inlineStr">
+        <is>
+          <t>US2301070040</t>
+        </is>
+      </c>
+      <c r="H719" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I719" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:28</t>
+        </is>
+      </c>
+      <c r="J719" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quang Huy</t>
+        </is>
+      </c>
+      <c r="L719" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M719" t="inlineStr"/>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>719</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>79408230003968</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>DO NGOC NGAN</t>
+        </is>
+      </c>
+      <c r="E720" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F720" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G720" t="inlineStr">
+        <is>
+          <t>US2301070035</t>
+        </is>
+      </c>
+      <c r="H720" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I720" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:28</t>
+        </is>
+      </c>
+      <c r="J720" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L720" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M720" t="inlineStr"/>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>011824778</t>
+        </is>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>TRAN NGOC THAO VY</t>
+        </is>
+      </c>
+      <c r="E721" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F721" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G721" t="inlineStr">
+        <is>
+          <t>CR2301070034</t>
+        </is>
+      </c>
+      <c r="H721" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I721" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:25</t>
+        </is>
+      </c>
+      <c r="J721" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>BS CKII Huỳnh Văn Tho</t>
+        </is>
+      </c>
+      <c r="L721" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M721" t="inlineStr"/>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>072085627</t>
+        </is>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>TRAN THANH HAO</t>
+        </is>
+      </c>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F722" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G722" t="inlineStr">
+        <is>
+          <t>CR2301070032</t>
+        </is>
+      </c>
+      <c r="H722" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I722" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:24</t>
+        </is>
+      </c>
+      <c r="J722" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>BS CKII Huỳnh Văn Tho</t>
+        </is>
+      </c>
+      <c r="L722" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M722" t="inlineStr"/>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>722</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>79408220116414</t>
+        </is>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>VO TRAN ANH TUAN</t>
+        </is>
+      </c>
+      <c r="E723" t="inlineStr">
+        <is>
+          <t>Siêu âm phần mềm (da, tổ chức dưới da, cơ..)</t>
+        </is>
+      </c>
+      <c r="F723" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G723" t="inlineStr">
+        <is>
+          <t>US2301070037</t>
+        </is>
+      </c>
+      <c r="H723" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I723" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:26</t>
+        </is>
+      </c>
+      <c r="J723" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quang Huy</t>
+        </is>
+      </c>
+      <c r="L723" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M723" t="inlineStr"/>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>79408230003994</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>TRUONG MINH SON</t>
+        </is>
+      </c>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F724" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G724" t="inlineStr">
+        <is>
+          <t>US2301070036</t>
+        </is>
+      </c>
+      <c r="H724" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I724" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:22</t>
+        </is>
+      </c>
+      <c r="J724" t="inlineStr">
+        <is>
+          <t>PK TYC Chất Lượng Cao</t>
+        </is>
+      </c>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Thị Uyên Sa</t>
+        </is>
+      </c>
+      <c r="L724" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M724" t="inlineStr"/>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>724</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>79408230003982</t>
+        </is>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>TRAN GIA PHUONG NGHI</t>
+        </is>
+      </c>
+      <c r="E725" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F725" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G725" t="inlineStr">
+        <is>
+          <t>US2301070034</t>
+        </is>
+      </c>
+      <c r="H725" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I725" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:17</t>
+        </is>
+      </c>
+      <c r="J725" t="inlineStr">
+        <is>
+          <t>PK TYC Chất Lượng Cao</t>
+        </is>
+      </c>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Thị Uyên Sa</t>
+        </is>
+      </c>
+      <c r="L725" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M725" t="inlineStr"/>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>725</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>79408230003946</t>
+        </is>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>TRAN MINH CHAU</t>
+        </is>
+      </c>
+      <c r="E726" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F726" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G726" t="inlineStr">
+        <is>
+          <t>CR2301070025</t>
+        </is>
+      </c>
+      <c r="H726" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I726" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:17</t>
+        </is>
+      </c>
+      <c r="J726" t="inlineStr">
+        <is>
+          <t>Tim mạch</t>
+        </is>
+      </c>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>BS CKII Huỳnh Văn Tho</t>
+        </is>
+      </c>
+      <c r="L726" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M726" t="inlineStr"/>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>726</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>79408210350227</t>
+        </is>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>NGUYEN PHAM DUY PHUC</t>
+        </is>
+      </c>
+      <c r="E727" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F727" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G727" t="inlineStr">
+        <is>
+          <t>US2301070033</t>
+        </is>
+      </c>
+      <c r="H727" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I727" t="inlineStr">
+        <is>
+          <t>07/01/2023 07:14</t>
+        </is>
+      </c>
+      <c r="J727" t="inlineStr">
+        <is>
+          <t>PK TYC Chất Lượng Cao</t>
+        </is>
+      </c>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Thị Uyên Sa</t>
+        </is>
+      </c>
+      <c r="L727" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M727" t="inlineStr"/>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>727</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>79408230003795</t>
+        </is>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>NGUYEN HOANG GIA PHUC</t>
+        </is>
+      </c>
+      <c r="E728" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F728" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G728" t="inlineStr">
+        <is>
+          <t>US2301060614</t>
+        </is>
+      </c>
+      <c r="H728" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I728" t="inlineStr">
+        <is>
+          <t>07/01/2023 06:50</t>
+        </is>
+      </c>
+      <c r="J728" t="inlineStr">
+        <is>
+          <t>Hô hấp 1</t>
+        </is>
+      </c>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Thị Hồng Ngọc</t>
+        </is>
+      </c>
+      <c r="L728" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M728" t="inlineStr"/>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>79408230001803</t>
+        </is>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>KIM NGOC KHA AI</t>
+        </is>
+      </c>
+      <c r="E729" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F729" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G729" t="inlineStr">
+        <is>
+          <t>US2301070030</t>
+        </is>
+      </c>
+      <c r="H729" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I729" t="inlineStr">
+        <is>
+          <t>07/01/2023 06:47</t>
+        </is>
+      </c>
+      <c r="J729" t="inlineStr">
+        <is>
+          <t>Hô hấp 1</t>
+        </is>
+      </c>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Thị Hồng Ngọc</t>
+        </is>
+      </c>
+      <c r="L729" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M729" t="inlineStr"/>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>101949322</t>
+        </is>
+      </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>PHAM NGUYEN PHUC KHANG</t>
+        </is>
+      </c>
+      <c r="E730" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F730" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G730" t="inlineStr">
+        <is>
+          <t>CR2301060253</t>
+        </is>
+      </c>
+      <c r="H730" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I730" t="inlineStr">
+        <is>
+          <t>07/01/2023 06:39</t>
+        </is>
+      </c>
+      <c r="J730" t="inlineStr">
+        <is>
+          <t>Tiêu Hoá</t>
+        </is>
+      </c>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Thị Hồng Ngọc</t>
+        </is>
+      </c>
+      <c r="L730" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M730" t="inlineStr"/>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>041879680</t>
+        </is>
+      </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>NGUYEN CAT BAO YEN</t>
+        </is>
+      </c>
+      <c r="E731" t="inlineStr">
+        <is>
+          <t>Chụp Xquang khớp khuỷu thẳng, nghiêng hoặc chếch</t>
+        </is>
+      </c>
+      <c r="F731" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G731" t="inlineStr">
+        <is>
+          <t>CR2301060384</t>
+        </is>
+      </c>
+      <c r="H731" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I731" t="inlineStr">
+        <is>
+          <t>07/01/2023 06:41</t>
+        </is>
+      </c>
+      <c r="J731" t="inlineStr">
+        <is>
+          <t>Bỏng chỉnh trực</t>
+        </is>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Thị Hồng Ngọc</t>
+        </is>
+      </c>
+      <c r="L731" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M731" t="inlineStr"/>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>731</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>79408230003795</t>
+        </is>
+      </c>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>NGUYEN HOANG GIA PHUC</t>
+        </is>
+      </c>
+      <c r="E732" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F732" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G732" t="inlineStr">
+        <is>
+          <t>CR2301060343</t>
+        </is>
+      </c>
+      <c r="H732" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I732" t="inlineStr">
+        <is>
+          <t>07/01/2023 06:36</t>
+        </is>
+      </c>
+      <c r="J732" t="inlineStr">
+        <is>
+          <t>Hô hấp 1</t>
+        </is>
+      </c>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Thị Hồng Ngọc</t>
+        </is>
+      </c>
+      <c r="L732" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M732" t="inlineStr"/>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>732</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>041882953</t>
+        </is>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>DO NGOC NGAN THU</t>
+        </is>
+      </c>
+      <c r="E733" t="inlineStr">
+        <is>
+          <t>Chụp Xquang khớp khuỷu thẳng, nghiêng hoặc chếch</t>
+        </is>
+      </c>
+      <c r="F733" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G733" t="inlineStr">
+        <is>
+          <t>CR2301070006</t>
+        </is>
+      </c>
+      <c r="H733" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I733" t="inlineStr">
+        <is>
+          <t>07/01/2023 06:39</t>
+        </is>
+      </c>
+      <c r="J733" t="inlineStr">
+        <is>
+          <t>Bỏng chỉnh trực</t>
+        </is>
+      </c>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Thị Hồng Ngọc</t>
+        </is>
+      </c>
+      <c r="L733" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M733" t="inlineStr"/>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>733</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>79408230003886</t>
+        </is>
+      </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>TRAN BAO NAM</t>
+        </is>
+      </c>
+      <c r="E734" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F734" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G734" t="inlineStr">
+        <is>
+          <t>CR2301070014</t>
+        </is>
+      </c>
+      <c r="H734" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I734" t="inlineStr">
+        <is>
+          <t>07/01/2023 06:23</t>
+        </is>
+      </c>
+      <c r="J734" t="inlineStr">
+        <is>
+          <t>Hồi sức TC &amp; CĐ</t>
+        </is>
+      </c>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Thị Hồng Ngọc</t>
+        </is>
+      </c>
+      <c r="L734" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M734" t="inlineStr"/>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>734</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>79408230003167</t>
+        </is>
+      </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>TRAN DUC PHU</t>
+        </is>
+      </c>
+      <c r="E735" t="inlineStr">
+        <is>
+          <t>Chụp Xquang khớp khuỷu thẳng, nghiêng hoặc chếch</t>
+        </is>
+      </c>
+      <c r="F735" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G735" t="inlineStr">
+        <is>
+          <t>CR2301070007</t>
+        </is>
+      </c>
+      <c r="H735" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I735" t="inlineStr">
+        <is>
+          <t>07/01/2023 06:20</t>
+        </is>
+      </c>
+      <c r="J735" t="inlineStr">
+        <is>
+          <t>Bỏng chỉnh trực</t>
+        </is>
+      </c>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Thị Hồng Ngọc</t>
+        </is>
+      </c>
+      <c r="L735" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M735" t="inlineStr"/>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>735</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>79408210210220</t>
+        </is>
+      </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>NGUYEN ANH LOC</t>
+        </is>
+      </c>
+      <c r="E736" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F736" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G736" t="inlineStr">
+        <is>
+          <t>US2301070027</t>
+        </is>
+      </c>
+      <c r="H736" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I736" t="inlineStr">
+        <is>
+          <t>07/01/2023 06:18</t>
+        </is>
+      </c>
+      <c r="J736" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Thị Hồng Ngọc</t>
+        </is>
+      </c>
+      <c r="L736" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M736" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
